--- a/biology/Botanique/M.Bieb/M.Bieb..xlsx
+++ b/biology/Botanique/M.Bieb/M.Bieb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Friedrich August Marschall von Bieberstein est un naturaliste et explorateur allemand, né le 10 août 1768 à Stuttgart et mort le 16 juin 1826 (28 juin dans le calendrier grégorien) à Méréfa (Empire russe).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à l'Université Caroline du Wurtemberg, où il fait la connaissance de Cuvier[1]. Il s'installe à Saint-Pétersbourg et acquiert un domaine à Méréfa près de Kharkov. Il collecte activement dans le sud de la Russie, particulièrement au Caucase et en Crimée, notamment avec son disciple Christian von Steven. Après sa mort, son herbier de 8 000 à 10 000 spécimens est acquis par l’Académie des sciences de Saint-Pétersbourg. Il est actuellement conservé par l’Institut de botanique Komarov.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à l'Université Caroline du Wurtemberg, où il fait la connaissance de Cuvier. Il s'installe à Saint-Pétersbourg et acquiert un domaine à Méréfa près de Kharkov. Il collecte activement dans le sud de la Russie, particulièrement au Caucase et en Crimée, notamment avec son disciple Christian von Steven. Après sa mort, son herbier de 8 000 à 10 000 spécimens est acquis par l’Académie des sciences de Saint-Pétersbourg. Il est actuellement conservé par l’Institut de botanique Komarov.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est notamment l’auteur de :
 Tableau des provinces situées sur la côte occidentale de la mer Caspienne, entre les fleuves Terek et Kour (Saint-Pétersbourg, 1798) Texte en ligne.
@@ -575,7 +591,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Biebersteinia (de) de la famille des Biebersteiniaceae a été nommé en son honneur par le botaniste allemand Christian Friedrich Stephan (es).
 Les espèces suivantes portent son nom:
